--- a/Excel - Formulas & Functions/Day1PM_learner_WorkshopData.xlsx
+++ b/Excel - Formulas & Functions/Day1PM_learner_WorkshopData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27927"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramlal\Documents\LaFosseAssociatesProgramme\DeepDive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42980713-35D6-4F1E-9441-C5437DAF8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9C3BFA-F8A5-40CC-B783-F3B32CF12EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9C4612E-932B-4A27-B978-84C071736509}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1018" r:id="rId2"/>
+    <pivotCache cacheId="6034" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>SaleID</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
   </si>
   <si>
     <t>Notebook</t>
@@ -1483,7 +1486,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3BC7BD0-FF83-49AF-9919-72125FE1CCA4}" name="PivotTable1" cacheId="1018" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3BC7BD0-FF83-49AF-9919-72125FE1CCA4}" name="PivotTable1" cacheId="6034" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K3:L8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1543,7 +1546,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A82143-E3EA-4301-84BC-AD56B3D53DEA}" name="PivotTable2" cacheId="1018" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A82143-E3EA-4301-84BC-AD56B3D53DEA}" name="PivotTable2" cacheId="6034" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K11:R23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -1978,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B0860-4495-47C7-9213-747D7C9160FF}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3529,7 +3532,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" ht="15">
       <c r="A40">
         <v>19</v>
       </c>
@@ -3556,6 +3559,13 @@
       </c>
       <c r="I40">
         <v>4</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40">
+        <f>KURT(F2:F51)</f>
+        <v>4.6162104880434587</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="0"/>
@@ -3573,10 +3583,10 @@
         <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41">
         <v>18</v>
@@ -3606,10 +3616,10 @@
         <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42">
         <v>16</v>
@@ -3672,10 +3682,10 @@
         <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>14</v>
@@ -3705,10 +3715,10 @@
         <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F45">
         <v>12</v>
@@ -3738,10 +3748,10 @@
         <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -3771,10 +3781,10 @@
         <v>210</v>
       </c>
       <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
         <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3804,10 +3814,10 @@
         <v>210</v>
       </c>
       <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
         <v>42</v>
-      </c>
-      <c r="E48" t="s">
-        <v>41</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -3837,10 +3847,10 @@
         <v>210</v>
       </c>
       <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
         <v>42</v>
-      </c>
-      <c r="E49" t="s">
-        <v>41</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -3870,10 +3880,10 @@
         <v>210</v>
       </c>
       <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
         <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>41</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -3903,10 +3913,10 @@
         <v>210</v>
       </c>
       <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
         <v>42</v>
-      </c>
-      <c r="E51" t="s">
-        <v>41</v>
       </c>
       <c r="F51">
         <v>5</v>

--- a/Excel - Formulas & Functions/Day1PM_learner_WorkshopData.xlsx
+++ b/Excel - Formulas & Functions/Day1PM_learner_WorkshopData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28005"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramlal\Documents\LaFosseAssociatesProgramme\DeepDive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000C3A8\EXCELCNV\83bd666f-9aa3-4b70-9b4e-efd72c7096cd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9C3BFA-F8A5-40CC-B783-F3B32CF12EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B783AFAB-8E9C-4889-AFD2-8F78D8DAAF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9C4612E-932B-4A27-B978-84C071736509}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{C9C4612E-932B-4A27-B978-84C071736509}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1PM_learner_WorkshopData" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Day1PM_learner_WorkshopData!$E$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <pivotCaches>
-    <pivotCache cacheId="6034" r:id="rId2"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
   <si>
     <t>SaleID</t>
   </si>
@@ -137,6 +134,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">VLOOKUP to find the </t>
     </r>
@@ -146,6 +144,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>SalesAmount</t>
     </r>
@@ -155,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> for </t>
     </r>
@@ -164,6 +164,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>ProductID</t>
     </r>
@@ -173,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 207</t>
     </r>
@@ -184,6 +186,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">SUMIFS to calculate the total </t>
     </r>
@@ -193,6 +196,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>SalesAmount</t>
     </r>
@@ -202,6 +206,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> for sales in the </t>
     </r>
@@ -211,6 +216,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>South</t>
     </r>
@@ -220,6 +226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> region</t>
     </r>
@@ -240,7 +247,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>QuantitySold</t>
     </r>
@@ -250,7 +257,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> of 3 or more</t>
     </r>
@@ -283,7 +290,34 @@
     <t>Stationery</t>
   </si>
   <si>
+    <t>Using Descriptive Statistics tool to calculate summary Statistics for the Sales Amount column</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
     <t>Pen</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -430,33 +464,36 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -640,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -755,6 +792,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -800,13 +857,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -863,803 +924,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45503.618888425925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{547864BE-3A5C-42AE-9FD5-E7C5612797EF}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I51" sheet="Day1PM_learner_WorkshopData"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="SaleID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-10T00:00:00" maxDate="2023-11-16T00:00:00"/>
-    </cacheField>
-    <cacheField name="ProductID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="201" maxValue="210" count="10">
-        <n v="201"/>
-        <n v="205"/>
-        <n v="203"/>
-        <n v="202"/>
-        <n v="206"/>
-        <n v="208"/>
-        <n v="207"/>
-        <n v="209"/>
-        <n v="204"/>
-        <n v="210"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="ProductName" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="SalesAmount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="1400"/>
-    </cacheField>
-    <cacheField name="QuantitySold" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="6">
-        <n v="2"/>
-        <n v="1"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="10"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Region" numFmtId="0">
-      <sharedItems count="4">
-        <s v="North"/>
-        <s v="East"/>
-        <s v="South"/>
-        <s v="West"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CustomerRating" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
-  <r>
-    <n v="41"/>
-    <d v="2023-09-20T00:00:00"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <s v="Electronics"/>
-    <n v="1400"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <d v="2023-07-20T00:00:00"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <s v="Electronics"/>
-    <n v="1350"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <d v="2023-05-20T00:00:00"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <s v="Electronics"/>
-    <n v="1300"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <d v="2023-03-20T00:00:00"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <s v="Electronics"/>
-    <n v="1250"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <d v="2023-01-10T00:00:00"/>
-    <x v="0"/>
-    <s v="Laptop"/>
-    <s v="Electronics"/>
-    <n v="1200"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <d v="2023-10-10T00:00:00"/>
-    <x v="1"/>
-    <s v="Monitor"/>
-    <s v="Electronics"/>
-    <n v="380"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <d v="2023-08-10T00:00:00"/>
-    <x v="1"/>
-    <s v="Monitor"/>
-    <s v="Electronics"/>
-    <n v="360"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <d v="2023-06-10T00:00:00"/>
-    <x v="1"/>
-    <s v="Monitor"/>
-    <s v="Electronics"/>
-    <n v="340"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <d v="2023-04-10T00:00:00"/>
-    <x v="1"/>
-    <s v="Monitor"/>
-    <s v="Electronics"/>
-    <n v="320"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <d v="2023-02-10T00:00:00"/>
-    <x v="1"/>
-    <s v="Monitor"/>
-    <s v="Electronics"/>
-    <n v="300"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <d v="2023-09-30T00:00:00"/>
-    <x v="2"/>
-    <s v="Desk Chair"/>
-    <s v="Furniture"/>
-    <n v="240"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <d v="2023-07-30T00:00:00"/>
-    <x v="2"/>
-    <s v="Desk Chair"/>
-    <s v="Furniture"/>
-    <n v="230"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <d v="2023-05-30T00:00:00"/>
-    <x v="2"/>
-    <s v="Desk Chair"/>
-    <s v="Furniture"/>
-    <n v="220"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <d v="2023-03-30T00:00:00"/>
-    <x v="2"/>
-    <s v="Desk Chair"/>
-    <s v="Furniture"/>
-    <n v="210"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <d v="2023-01-20T00:00:00"/>
-    <x v="2"/>
-    <s v="Desk Chair"/>
-    <s v="Furniture"/>
-    <n v="200"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <d v="2023-09-25T00:00:00"/>
-    <x v="3"/>
-    <s v="Headphones"/>
-    <s v="Electronics"/>
-    <n v="190"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <d v="2023-07-25T00:00:00"/>
-    <x v="3"/>
-    <s v="Headphones"/>
-    <s v="Electronics"/>
-    <n v="180"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <d v="2023-05-25T00:00:00"/>
-    <x v="3"/>
-    <s v="Headphones"/>
-    <s v="Electronics"/>
-    <n v="170"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <d v="2023-03-25T00:00:00"/>
-    <x v="3"/>
-    <s v="Headphones"/>
-    <s v="Electronics"/>
-    <n v="160"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <d v="2023-01-15T00:00:00"/>
-    <x v="3"/>
-    <s v="Headphones"/>
-    <s v="Electronics"/>
-    <n v="150"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <d v="2023-10-15T00:00:00"/>
-    <x v="4"/>
-    <s v="Backpack"/>
-    <s v="Accessories"/>
-    <n v="70"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <d v="2023-08-15T00:00:00"/>
-    <x v="4"/>
-    <s v="Backpack"/>
-    <s v="Accessories"/>
-    <n v="65"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <d v="2023-06-15T00:00:00"/>
-    <x v="4"/>
-    <s v="Backpack"/>
-    <s v="Accessories"/>
-    <n v="60"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <d v="2023-11-01T00:00:00"/>
-    <x v="5"/>
-    <s v="Lamp"/>
-    <s v="Furniture"/>
-    <n v="60"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <d v="2023-04-15T00:00:00"/>
-    <x v="4"/>
-    <s v="Backpack"/>
-    <s v="Accessories"/>
-    <n v="55"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <d v="2023-09-01T00:00:00"/>
-    <x v="5"/>
-    <s v="Lamp"/>
-    <s v="Furniture"/>
-    <n v="55"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <d v="2023-02-15T00:00:00"/>
-    <x v="4"/>
-    <s v="Backpack"/>
-    <s v="Accessories"/>
-    <n v="50"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <d v="2023-07-01T00:00:00"/>
-    <x v="5"/>
-    <s v="Lamp"/>
-    <s v="Furniture"/>
-    <n v="50"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <d v="2023-05-01T00:00:00"/>
-    <x v="5"/>
-    <s v="Lamp"/>
-    <s v="Furniture"/>
-    <n v="45"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <d v="2023-03-01T00:00:00"/>
-    <x v="5"/>
-    <s v="Lamp"/>
-    <s v="Furniture"/>
-    <n v="40"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <d v="2023-10-20T00:00:00"/>
-    <x v="6"/>
-    <s v="Coffee Mug"/>
-    <s v="Kitchenware"/>
-    <n v="30"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <d v="2023-08-20T00:00:00"/>
-    <x v="6"/>
-    <s v="Coffee Mug"/>
-    <s v="Kitchenware"/>
-    <n v="27"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <d v="2023-06-20T00:00:00"/>
-    <x v="6"/>
-    <s v="Coffee Mug"/>
-    <s v="Kitchenware"/>
-    <n v="25"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <d v="2023-11-10T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bottle"/>
-    <s v="Kitchenware"/>
-    <n v="25"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <d v="2023-04-20T00:00:00"/>
-    <x v="6"/>
-    <s v="Coffee Mug"/>
-    <s v="Kitchenware"/>
-    <n v="22"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <d v="2023-09-10T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bottle"/>
-    <s v="Kitchenware"/>
-    <n v="22"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <d v="2023-02-20T00:00:00"/>
-    <x v="6"/>
-    <s v="Coffee Mug"/>
-    <s v="Kitchenware"/>
-    <n v="20"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <d v="2023-07-10T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bottle"/>
-    <s v="Kitchenware"/>
-    <n v="20"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <d v="2023-05-10T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bottle"/>
-    <s v="Kitchenware"/>
-    <n v="18"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <d v="2023-10-05T00:00:00"/>
-    <x v="8"/>
-    <s v="Notebook"/>
-    <s v="Stationery"/>
-    <n v="18"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <d v="2023-08-05T00:00:00"/>
-    <x v="8"/>
-    <s v="Notebook"/>
-    <s v="Stationery"/>
-    <n v="16"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <d v="2023-03-10T00:00:00"/>
-    <x v="7"/>
-    <s v="Water Bottle"/>
-    <s v="Kitchenware"/>
-    <n v="15"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <d v="2023-06-05T00:00:00"/>
-    <x v="8"/>
-    <s v="Notebook"/>
-    <s v="Stationery"/>
-    <n v="14"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <d v="2023-04-05T00:00:00"/>
-    <x v="8"/>
-    <s v="Notebook"/>
-    <s v="Stationery"/>
-    <n v="12"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <d v="2023-02-05T00:00:00"/>
-    <x v="8"/>
-    <s v="Notebook"/>
-    <s v="Stationery"/>
-    <n v="10"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <d v="2023-11-15T00:00:00"/>
-    <x v="9"/>
-    <s v="Pen"/>
-    <s v="Stationery"/>
-    <n v="10"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <d v="2023-09-15T00:00:00"/>
-    <x v="9"/>
-    <s v="Pen"/>
-    <s v="Stationery"/>
-    <n v="9"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <d v="2023-07-15T00:00:00"/>
-    <x v="9"/>
-    <s v="Pen"/>
-    <s v="Stationery"/>
-    <n v="8"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <d v="2023-05-15T00:00:00"/>
-    <x v="9"/>
-    <s v="Pen"/>
-    <s v="Stationery"/>
-    <n v="7"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <d v="2023-03-15T00:00:00"/>
-    <x v="9"/>
-    <s v="Pen"/>
-    <s v="Stationery"/>
-    <n v="5"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="4"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3BC7BD0-FF83-49AF-9919-72125FE1CCA4}" name="PivotTable1" cacheId="6034" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K3:L8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of SalesAmount" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8A82143-E3EA-4301-84BC-AD56B3D53DEA}" name="PivotTable2" cacheId="6034" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K11:R23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of SaleID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1979,24 +1243,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B0860-4495-47C7-9213-747D7C9160FF}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
     <col min="20" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2033,7 +1299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>41</v>
       </c>
@@ -2186,7 +1452,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2336,7 +1602,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>15</v>
       </c>
@@ -2978,7 +2244,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>48</v>
       </c>
@@ -3079,7 +2345,7 @@
       <c r="I27">
         <v>4</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="S27">
@@ -3152,7 +2418,7 @@
       <c r="I29">
         <v>4</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="V29" t="str">
@@ -3336,7 +2602,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>49</v>
       </c>
@@ -3372,7 +2638,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>17</v>
       </c>
@@ -3412,7 +2678,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>39</v>
       </c>
@@ -3452,7 +2718,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>7</v>
       </c>
@@ -3492,7 +2758,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>29</v>
       </c>
@@ -3532,7 +2798,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>19</v>
       </c>
@@ -3605,7 +2871,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" ht="15.75" thickBot="1">
       <c r="A42">
         <v>34</v>
       </c>
@@ -3666,6 +2932,9 @@
       <c r="I43">
         <v>5</v>
       </c>
+      <c r="L43" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="V43" t="str">
         <f t="shared" si="0"/>
         <v>Low</v>
@@ -3732,6 +3001,12 @@
       <c r="I45">
         <v>5</v>
       </c>
+      <c r="K45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45">
+        <v>220.66</v>
+      </c>
       <c r="V45" t="str">
         <f t="shared" si="0"/>
         <v>Low</v>
@@ -3765,6 +3040,12 @@
       <c r="I46">
         <v>4</v>
       </c>
+      <c r="K46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46">
+        <v>53.637076804793018</v>
+      </c>
       <c r="V46" t="str">
         <f t="shared" si="0"/>
         <v>Low</v>
@@ -3781,7 +3062,7 @@
         <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
         <v>42</v>
@@ -3797,6 +3078,12 @@
       </c>
       <c r="I47">
         <v>4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47">
+        <v>55</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="0"/>
@@ -3814,7 +3101,7 @@
         <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>42</v>
@@ -3830,6 +3117,12 @@
       </c>
       <c r="I48">
         <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>60</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="0"/>
@@ -3847,7 +3140,7 @@
         <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
@@ -3863,6 +3156,12 @@
       </c>
       <c r="I49">
         <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49">
+        <v>379.27140731692822</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="0"/>
@@ -3880,7 +3179,7 @@
         <v>210</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
@@ -3896,6 +3195,12 @@
       </c>
       <c r="I50">
         <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50">
+        <v>143846.80040816328</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="0"/>
@@ -3913,7 +3218,7 @@
         <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
         <v>42</v>
@@ -3930,9 +3235,63 @@
       <c r="I51">
         <v>4</v>
       </c>
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51">
+        <v>4.6162104880434587</v>
+      </c>
       <c r="V51" t="str">
         <f t="shared" si="0"/>
         <v>Low</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52">
+        <v>2.4006128825201949</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="K54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="K55" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="K56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56">
+        <v>11033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" thickBot="1">
+      <c r="K57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
